--- a/src/main/resources/static/requisition/VIA_pt.xlsx
+++ b/src/main/resources/static/requisition/VIA_pt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fengkai/Documents/repo/siglus-api/src/main/resources/static/requisition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinghe/Desktop/dev/siglus-api/src/main/resources/static/requisition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852352E-ECEC-D148-B8D7-BBC9D0C32E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEBF181-338A-5C44-972F-343C7E9B72DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36160" yWindow="3780" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="34560" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIA" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>CMAM - Modelo 01</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>I-SF</t>
+  </si>
+  <si>
+    <t>Quantidade Aprovada</t>
+  </si>
+  <si>
+    <t>{product.quantityAuthorized}</t>
   </si>
 </sst>
 </file>
@@ -667,19 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -772,6 +765,17 @@
       </left>
       <right style="thin">
         <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -783,14 +787,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -805,9 +809,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -850,9 +851,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,52 +860,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,12 +893,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,13 +914,67 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1347,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1369,342 +1382,370 @@
     <col min="13" max="13" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="44.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:14" ht="44.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="60" t="s">
         <v>44</v>
       </c>
+      <c r="N1" s="60"/>
     </row>
-    <row r="2" spans="1:13" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26"/>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="60" t="s">
         <v>43</v>
       </c>
+      <c r="N2" s="60"/>
     </row>
-    <row r="3" spans="1:13" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="10" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="60" t="s">
         <v>45</v>
       </c>
+      <c r="N3" s="60"/>
     </row>
-    <row r="4" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="61" t="s">
         <v>36</v>
       </c>
+      <c r="N4" s="62"/>
     </row>
-    <row r="5" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="N5" s="59" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="54" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="55" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="38"/>
-      <c r="M6" s="48"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="59"/>
     </row>
-    <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="32" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="38"/>
-      <c r="M7" s="48"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="59"/>
     </row>
-    <row r="8" spans="1:13" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="50"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="38"/>
-      <c r="M8" s="48"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="59"/>
     </row>
-    <row r="9" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="31"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="38"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="50"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="38"/>
-      <c r="M9" s="48"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="59"/>
     </row>
-    <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="34" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="29">
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="M5:M9"/>
@@ -1721,14 +1762,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/main/resources/static/requisition/VIA_pt.xlsx
+++ b/src/main/resources/static/requisition/VIA_pt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinghe/Desktop/dev/siglus-api/src/main/resources/static/requisition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEBF181-338A-5C44-972F-343C7E9B72DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD898AC1-693F-0645-BD26-C55B24229B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="34560" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>CMAM - Modelo 01</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>{product.quantityAuthorized}</t>
+  </si>
+  <si>
+    <t>Quantidade Sugerida</t>
+  </si>
+  <si>
+    <t>{product.quantitySuggested}</t>
   </si>
 </sst>
 </file>
@@ -335,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -777,6 +783,52 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -787,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -863,6 +915,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -893,18 +999,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -914,67 +1014,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1382,34 +1440,35 @@
     <col min="13" max="13" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="44.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:15" ht="44.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="60"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:15" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1419,17 +1478,17 @@
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="46"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
@@ -1439,22 +1498,23 @@
       <c r="L2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="60"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+    <row r="3" spans="1:15" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="44"/>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1473,21 +1533,22 @@
       <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="60"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="45"/>
       <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="18" t="s">
         <v>40</v>
       </c>
@@ -1509,113 +1570,120 @@
       <c r="L4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="62"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="27"/>
     </row>
-    <row r="5" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="N5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="O5" s="61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="40" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="59"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="61"/>
     </row>
-    <row r="7" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="42" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="59"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="61"/>
     </row>
-    <row r="8" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="59"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="61"/>
     </row>
-    <row r="9" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="21" t="s">
         <v>62</v>
       </c>
@@ -1637,12 +1705,13 @@
       <c r="J9" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="59"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="62"/>
     </row>
-    <row r="10" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="24" t="s">
         <v>47</v>
       </c>
@@ -1674,16 +1743,19 @@
         <v>48</v>
       </c>
       <c r="L10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="N10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="O10" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -1697,7 +1769,7 @@
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -1711,41 +1783,34 @@
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="58" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
+  <mergeCells count="30">
+    <mergeCell ref="O5:O9"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="M5:M9"/>
@@ -1762,6 +1827,15 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
